--- a/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
+++ b/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>Stories</t>
   </si>
@@ -317,6 +313,18 @@
   </si>
   <si>
     <t>Wer</t>
+  </si>
+  <si>
+    <t>Kai</t>
+  </si>
+  <si>
+    <t>Partymarti</t>
+  </si>
+  <si>
+    <t>Riedo</t>
+  </si>
+  <si>
+    <t>Alle</t>
   </si>
 </sst>
 </file>
@@ -660,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,6 +762,9 @@
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -765,6 +776,9 @@
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -776,6 +790,9 @@
       <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -787,6 +804,9 @@
       <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -809,6 +829,9 @@
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -820,6 +843,9 @@
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -831,8 +857,11 @@
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -842,8 +871,11 @@
       <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -853,8 +885,11 @@
       <c r="C18" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -864,8 +899,11 @@
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -875,8 +913,11 @@
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -886,8 +927,11 @@
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -897,8 +941,11 @@
       <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -908,8 +955,11 @@
       <c r="C23" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -919,8 +969,11 @@
       <c r="C24" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -930,8 +983,11 @@
       <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -941,8 +997,11 @@
       <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -952,8 +1011,11 @@
       <c r="C27" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -963,8 +1025,11 @@
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -974,8 +1039,11 @@
       <c r="C29" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -985,8 +1053,11 @@
       <c r="C30" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -996,8 +1067,11 @@
       <c r="C31" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
@@ -1007,8 +1081,11 @@
       <c r="C32" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1018,8 +1095,11 @@
       <c r="C33" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1029,8 +1109,11 @@
       <c r="C34" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
@@ -1041,7 +1124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
@@ -1050,6 +1133,9 @@
       </c>
       <c r="C36" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
+++ b/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>Stories</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Alle</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -666,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,12 +685,12 @@
     <col min="3" max="3" width="69" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -697,8 +703,11 @@
       <c r="D2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -709,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -720,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -731,7 +740,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -742,17 +751,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -766,7 +775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -780,7 +789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -794,7 +803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -808,7 +817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -819,7 +828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -833,7 +842,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -847,7 +856,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -861,7 +870,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -875,7 +884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -889,7 +898,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -903,7 +912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -917,7 +926,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -931,7 +940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -945,7 +954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -959,7 +968,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -973,7 +982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -987,7 +996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +1010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -1015,7 +1024,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -1043,7 +1052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -1057,7 +1066,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -1070,8 +1079,11 @@
       <c r="D31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
@@ -1084,8 +1096,11 @@
       <c r="D32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1098,8 +1113,11 @@
       <c r="D33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1113,7 +1131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
@@ -1124,7 +1142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>

--- a/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
+++ b/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>Stories</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>CSS Design</t>
-  </si>
-  <si>
-    <t>Animations (jquery)</t>
-  </si>
-  <si>
-    <t>DB Anbindung</t>
   </si>
   <si>
     <t>Seitenstruktur</t>
@@ -331,6 +325,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>begonnen</t>
   </si>
 </sst>
 </file>
@@ -674,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,30 +689,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2.1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -726,18 +723,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6">
         <v>12.2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -748,413 +745,418 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>3.2</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>4.2</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>3.2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>4.2</v>
-      </c>
-      <c r="C10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="D10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>41</v>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>5.2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>5.2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>5.3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>8.1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>6.1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>5.3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="17" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>6.2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>6.3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>6.4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>6.5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>5.3</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="23" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>7.1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>7.3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>8.1</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="27" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B27">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>6.1</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>6.2</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>6.3</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>6.4</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="6">
-        <v>9.1</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>6.5</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
+    <row r="29" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>10.1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>7.1</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <v>7.3</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>43</v>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>10.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B33">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B34">
-        <v>10.4</v>
+        <v>12.1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35">
-        <v>11.1</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36">
-        <v>12.1</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>62</v>
-      </c>
+    <row r="35" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
+++ b/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>Stories</t>
   </si>
@@ -312,9 +312,6 @@
     <t>Kai</t>
   </si>
   <si>
-    <t>Partymarti</t>
-  </si>
-  <si>
     <t>Riedo</t>
   </si>
   <si>
@@ -328,6 +325,12 @@
   </si>
   <si>
     <t>begonnen</t>
+  </si>
+  <si>
+    <t>obsolet</t>
+  </si>
+  <si>
+    <t>alle</t>
   </si>
 </sst>
 </file>
@@ -671,14 +674,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="69" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -701,7 +704,7 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -714,6 +717,9 @@
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -725,6 +731,9 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -747,6 +756,9 @@
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -761,6 +773,9 @@
       <c r="D7" t="s">
         <v>58</v>
       </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -775,6 +790,9 @@
       <c r="D8" t="s">
         <v>58</v>
       </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -787,7 +805,10 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -804,7 +825,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -817,6 +838,9 @@
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -832,7 +856,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" customFormat="1" ht="210" x14ac:dyDescent="0.25">
@@ -846,7 +870,10 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -860,7 +887,10 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -874,7 +904,10 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -888,7 +921,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -902,7 +935,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -916,7 +949,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -930,7 +963,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -944,7 +977,7 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -958,7 +991,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -972,7 +1005,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -986,7 +1019,7 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -1000,7 +1033,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1014,7 +1047,7 @@
         <v>53</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1028,7 +1061,7 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1042,7 +1075,7 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1056,7 +1089,7 @@
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -1073,7 +1106,7 @@
         <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1090,7 +1123,7 @@
         <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1107,7 +1140,7 @@
         <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1124,7 +1157,7 @@
         <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1137,6 +1170,12 @@
       <c r="C33" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1149,7 +1188,7 @@
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">

--- a/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
+++ b/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$34</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>Stories</t>
   </si>
@@ -672,10 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -759,8 +763,11 @@
       <c r="D6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -777,7 +784,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -794,7 +801,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -811,7 +818,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -828,7 +835,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -842,7 +849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -859,7 +866,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -876,7 +883,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -893,7 +900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1050,7 +1057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1063,8 +1070,11 @@
       <c r="D26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1076,6 +1086,9 @@
       </c>
       <c r="D27" t="s">
         <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1092,7 +1105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -1109,7 +1122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -1126,7 +1139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1160,7 +1173,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
@@ -1174,7 +1187,7 @@
         <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1198,6 +1211,14 @@
       <c r="C36" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:E34">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="begonnen"/>
+        <filter val="obsolet"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
+++ b/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>Stories</t>
   </si>
@@ -679,7 +679,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +751,9 @@
       </c>
       <c r="D5" s="6" t="s">
         <v>58</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">

--- a/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
+++ b/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -678,8 +678,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
+++ b/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shop\ch.bfh.bti7054.w2014.p.pc-hammer\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$34</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -676,7 +680,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -770,7 +774,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -787,7 +791,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -804,7 +808,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -821,7 +825,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -838,7 +842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -852,7 +856,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -869,7 +873,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -886,7 +890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -903,7 +907,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -920,7 +924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -934,7 +938,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -948,7 +952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -962,7 +966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -976,7 +980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
@@ -990,7 +994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -1206,12 +1210,6 @@
       <c r="D34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E34">

--- a/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
+++ b/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shop\ch.bfh.bti7054.w2014.p.pc-hammer\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$37</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>HTML Struktur</t>
   </si>
@@ -353,12 +348,21 @@
     <t>Pick a REST of SOAP service of your choice and integrate it into your
 shop.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Tasks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +381,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -434,11 +445,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -456,10 +468,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,6 +487,165 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-CH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Task</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t>s Statistic</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$3:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Done </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Open</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>48304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -729,7 +903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -737,27 +911,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="73.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>47</v>
       </c>
@@ -773,8 +948,26 @@
       <c r="E2" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>SUM(F3:F37)</f>
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <f>SUM(G3:G37)</f>
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2">
+        <f>G2</f>
+        <v>35</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -788,8 +981,27 @@
       <c r="E3" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>IF(E3="done",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>IF(A3="",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3">
+        <f>F2</f>
+        <v>26</v>
+      </c>
+      <c r="L3" s="13">
+        <f>F2/G2</f>
+        <v>0.74285714285714288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -803,8 +1015,27 @@
       <c r="E4" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="0">IF(E4="done",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="1">IF(A4="",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="3">
+        <f>K2-K3</f>
+        <v>9</v>
+      </c>
+      <c r="L4" s="14">
+        <f>K4/K2</f>
+        <v>0.25714285714285712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>43</v>
       </c>
@@ -820,8 +1051,16 @@
       <c r="E5" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -837,8 +1076,16 @@
       <c r="E6" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -854,8 +1101,16 @@
       <c r="E7" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -871,8 +1126,16 @@
       <c r="E8" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -888,8 +1151,16 @@
       <c r="E9" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -905,8 +1176,16 @@
       <c r="E10" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -920,8 +1199,16 @@
       <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -937,8 +1224,16 @@
       <c r="E12" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -954,8 +1249,16 @@
       <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -971,8 +1274,16 @@
       <c r="E14" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -988,8 +1299,16 @@
       <c r="E15" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1005,8 +1324,16 @@
       <c r="E16" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1022,8 +1349,16 @@
       <c r="E17" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -1039,8 +1374,16 @@
       <c r="E18" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1056,8 +1399,16 @@
       <c r="E19" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -1073,8 +1424,16 @@
       <c r="E20" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
@@ -1090,8 +1449,16 @@
       <c r="E21" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -1107,8 +1474,16 @@
       <c r="E22" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -1124,8 +1499,16 @@
       <c r="E23" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
@@ -1141,8 +1524,16 @@
       <c r="E24" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>46</v>
       </c>
@@ -1158,8 +1549,16 @@
       <c r="E25" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -1175,8 +1574,16 @@
       <c r="E26" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -1192,8 +1599,16 @@
       <c r="E27" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -1207,8 +1622,16 @@
         <v>52</v>
       </c>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>35</v>
       </c>
@@ -1224,8 +1647,16 @@
       <c r="E29" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
@@ -1241,8 +1672,16 @@
       <c r="E30" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
@@ -1258,8 +1697,16 @@
       <c r="E31" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
@@ -1275,8 +1722,16 @@
       <c r="E32" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -1292,8 +1747,16 @@
       <c r="E33" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>41</v>
       </c>
@@ -1307,8 +1770,16 @@
         <v>50</v>
       </c>
       <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>64</v>
       </c>
@@ -1320,8 +1791,16 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>64</v>
       </c>
@@ -1335,8 +1814,16 @@
       <c r="E36" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>64</v>
       </c>
@@ -1348,10 +1835,919 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" ref="F68:F127" si="2">IF(E68="done",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G127" si="3">IF(A68="",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:E37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
+++ b/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webprogramming\ch.bfh.bti7054.w2014.p.pc-hammer\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$37</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
   <si>
     <t>HTML Struktur</t>
   </si>
@@ -273,15 +278,6 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>options and email</t>
-  </si>
-  <si>
-    <t>more classes for cart items</t>
-  </si>
-  <si>
-    <t>at finish line</t>
-  </si>
-  <si>
     <t>not finished</t>
   </si>
   <si>
@@ -311,9 +307,6 @@
   </si>
   <si>
     <t>Create installation guide</t>
-  </si>
-  <si>
-    <t>create user</t>
   </si>
   <si>
     <t>Create powerpoint</t>
@@ -356,6 +349,9 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>Marti</t>
   </si>
 </sst>
 </file>
@@ -472,9 +468,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,7 +488,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -536,6 +532,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -543,6 +546,11 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -565,10 +573,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,7 +911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -913,17 +921,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="73.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -950,14 +957,14 @@
       </c>
       <c r="F2">
         <f>SUM(F3:F37)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <f>SUM(G3:G37)</f>
         <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K2">
         <f>G2</f>
@@ -975,9 +982,11 @@
         <v>2.1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>54</v>
       </c>
@@ -990,15 +999,15 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K3">
         <f>F2</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L3" s="13">
         <f>F2/G2</f>
-        <v>0.74285714285714288</v>
+        <v>0.97142857142857142</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1011,7 +1020,9 @@
       <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="E4" s="9" t="s">
         <v>54</v>
       </c>
@@ -1024,15 +1035,15 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K4" s="3">
         <f>K2-K3</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L4" s="14">
         <f>K4/K2</f>
-        <v>0.25714285714285712</v>
+        <v>2.8571428571428571E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1118,7 +1129,7 @@
         <v>4.2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -1195,7 +1206,9 @@
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
@@ -1216,7 +1229,7 @@
         <v>5.2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>50</v>
@@ -1241,7 +1254,7 @@
         <v>5.3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>50</v>
@@ -1341,7 +1354,7 @@
         <v>6.2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>51</v>
@@ -1397,11 +1410,11 @@
         <v>51</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
@@ -1447,11 +1460,11 @@
         <v>51</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
@@ -1472,11 +1485,11 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
@@ -1508,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +1529,7 @@
         <v>7.2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>51</v>
@@ -1621,10 +1634,12 @@
       <c r="D28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
@@ -1720,7 +1735,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -1739,7 +1754,7 @@
         <v>11.1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>50</v>
@@ -1767,12 +1782,14 @@
         <v>42</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
@@ -1781,19 +1798,23 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B35" s="9">
         <v>13.1</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
@@ -1802,21 +1823,23 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B36" s="9">
         <v>13.2</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" s="4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
@@ -1825,19 +1848,23 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B37" s="9">
         <v>13.3</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>

--- a/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
+++ b/ch.bfh.bti7054.w2014.p.pc-hammer/doc/Tasks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>HTML Struktur</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Marti</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -554,29 +557,32 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$3:$J$4</c:f>
+              <c:f>Sheet1!$J$3:$J$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Done </c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Open</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>In Progress</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$4</c:f>
+              <c:f>Sheet1!$K$3:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,14 +633,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>48304</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -921,17 +927,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="73.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
@@ -957,7 +964,7 @@
       </c>
       <c r="F2">
         <f>SUM(F3:F37)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <f>SUM(G3:G37)</f>
@@ -1003,11 +1010,11 @@
       </c>
       <c r="K3">
         <f>F2</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="13">
         <f>F2/G2</f>
-        <v>0.97142857142857142</v>
+        <v>0.94285714285714284</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1027,23 +1034,24 @@
         <v>54</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="0">IF(E4="done",1,0)</f>
+        <f>IF(E4="done",1,0)</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="1">IF(A4="",0,1)</f>
-        <v>1</v>
-      </c>
+        <f t="shared" ref="G4:G67" si="0">IF(A4="",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H4"/>
       <c r="J4" s="3" t="s">
         <v>71</v>
       </c>
       <c r="K4" s="3">
         <f>K2-K3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="14">
         <f>K4/K2</f>
-        <v>2.8571428571428571E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1063,12 +1071,16 @@
         <v>54</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F67" si="1">IF(E5="done",1,0)</f>
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5"/>
+      <c r="J5" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -1088,11 +1100,11 @@
         <v>54</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1113,11 +1125,11 @@
         <v>54</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1138,11 +1150,11 @@
         <v>54</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1163,13 +1175,14 @@
         <v>54</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1188,13 +1201,14 @@
         <v>54</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10"/>
     </row>
     <row r="11" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1213,11 +1227,11 @@
         <v>54</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1238,11 +1252,11 @@
         <v>54</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1263,11 +1277,11 @@
         <v>54</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1288,11 +1302,11 @@
         <v>54</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1313,11 +1327,11 @@
         <v>54</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1338,15 +1352,15 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1363,15 +1377,15 @@
         <v>54</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -1388,15 +1402,15 @@
         <v>54</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1410,18 +1424,18 @@
         <v>51</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -1438,15 +1452,16 @@
         <v>54</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
@@ -1463,15 +1478,16 @@
         <v>54</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -1488,15 +1504,15 @@
         <v>54</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -1513,15 +1529,15 @@
         <v>54</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
@@ -1538,15 +1554,16 @@
         <v>54</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>46</v>
       </c>
@@ -1563,15 +1580,16 @@
         <v>54</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -1588,15 +1606,15 @@
         <v>54</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -1613,15 +1631,15 @@
         <v>54</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -1638,15 +1656,15 @@
         <v>54</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>35</v>
       </c>
@@ -1663,15 +1681,15 @@
         <v>54</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
@@ -1688,15 +1706,15 @@
         <v>54</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
@@ -1713,15 +1731,15 @@
         <v>54</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
@@ -1738,11 +1756,11 @@
         <v>57</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1763,11 +1781,11 @@
         <v>54</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1788,11 +1806,11 @@
         <v>54</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1813,11 +1831,11 @@
         <v>54</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1838,11 +1856,11 @@
         <v>54</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1863,311 +1881,311 @@
         <v>54</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
